--- a/trial Lab/xc.xlsx
+++ b/trial Lab/xc.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44457.25122237269</v>
+        <v>44461.25125223379</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -510,21 +510,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>155.4805</v>
+        <v>145.9512</v>
       </c>
       <c r="G2" t="n">
-        <v>112.1855</v>
+        <v>105.5938</v>
       </c>
       <c r="H2" t="n">
-        <v>43.29492</v>
+        <v>40.35742</v>
       </c>
       <c r="I2" t="n">
-        <v>20380.89</v>
+        <v>20816.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44456.25121431713</v>
+        <v>44460.25124417824</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -547,21 +547,21 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>139.1738</v>
+        <v>150.75</v>
       </c>
       <c r="G3" t="n">
-        <v>101.4004</v>
+        <v>108.543</v>
       </c>
       <c r="H3" t="n">
-        <v>37.77344</v>
+        <v>42.20703</v>
       </c>
       <c r="I3" t="n">
-        <v>20225.4</v>
+        <v>20670.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44455.25120413194</v>
+        <v>44459.25123730324</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -584,21 +584,21 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>145.4277</v>
+        <v>24.9707</v>
       </c>
       <c r="G4" t="n">
-        <v>107.25</v>
+        <v>16.6582</v>
       </c>
       <c r="H4" t="n">
-        <v>38.17773</v>
+        <v>8.3125</v>
       </c>
       <c r="I4" t="n">
-        <v>20086.23</v>
+        <v>20519.51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44454.2512008449</v>
+        <v>44458.25122974537</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -621,21 +621,21 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>155.1914</v>
+        <v>113.6523</v>
       </c>
       <c r="G5" t="n">
-        <v>117.3438</v>
+        <v>80.75194999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>37.84766</v>
+        <v>32.90039</v>
       </c>
       <c r="I5" t="n">
-        <v>19940.8</v>
+        <v>20494.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44453.25119201389</v>
+        <v>44457.25122237269</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -658,21 +658,21 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>155.1484</v>
+        <v>155.4805</v>
       </c>
       <c r="G6" t="n">
-        <v>112.3926</v>
+        <v>112.1855</v>
       </c>
       <c r="H6" t="n">
-        <v>42.75586</v>
+        <v>43.29492</v>
       </c>
       <c r="I6" t="n">
-        <v>19785.61</v>
+        <v>20380.89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44452.25118174768</v>
+        <v>44456.25121431713</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -695,21 +695,21 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1000085</v>
+        <v>139.1738</v>
       </c>
       <c r="G7" t="n">
-        <v>1000071</v>
+        <v>101.4004</v>
       </c>
       <c r="H7" t="n">
-        <v>14.25</v>
+        <v>37.77344</v>
       </c>
       <c r="I7" t="n">
-        <v>19630.46</v>
+        <v>20225.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44451.25117430556</v>
+        <v>44455.25120413194</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -732,21 +732,21 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>114.8301</v>
+        <v>145.4277</v>
       </c>
       <c r="G8" t="n">
-        <v>74.78906000000001</v>
+        <v>107.25</v>
       </c>
       <c r="H8" t="n">
-        <v>40.04102</v>
+        <v>38.17773</v>
       </c>
       <c r="I8" t="n">
-        <v>19544.16</v>
+        <v>20086.23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44450.25116917824</v>
+        <v>44454.2512008449</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -769,21 +769,21 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>148.3145</v>
+        <v>155.1914</v>
       </c>
       <c r="G9" t="n">
-        <v>107.5332</v>
+        <v>117.3438</v>
       </c>
       <c r="H9" t="n">
-        <v>40.78125</v>
+        <v>37.84766</v>
       </c>
       <c r="I9" t="n">
-        <v>19429.33</v>
+        <v>19940.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44449.25115864583</v>
+        <v>44453.25119201389</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -806,21 +806,21 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>146.2891</v>
+        <v>155.1484</v>
       </c>
       <c r="G10" t="n">
-        <v>104.8906</v>
+        <v>112.3926</v>
       </c>
       <c r="H10" t="n">
-        <v>41.39844</v>
+        <v>42.75586</v>
       </c>
       <c r="I10" t="n">
-        <v>19281.01</v>
+        <v>19785.61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44448.25115370371</v>
+        <v>44452.25118174768</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -843,21 +843,21 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>145.9219</v>
+        <v>86.3</v>
       </c>
       <c r="G11" t="n">
-        <v>107.5703</v>
+        <v>1000071</v>
       </c>
       <c r="H11" t="n">
-        <v>38.35156</v>
+        <v>14.25</v>
       </c>
       <c r="I11" t="n">
-        <v>19134.72</v>
+        <v>19630.46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44447.25114259259</v>
+        <v>44451.25117430556</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -880,21 +880,21 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>159.6738</v>
+        <v>114.8301</v>
       </c>
       <c r="G12" t="n">
-        <v>119.1348</v>
+        <v>74.78906000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>40.53906</v>
+        <v>40.04102</v>
       </c>
       <c r="I12" t="n">
-        <v>18988.8</v>
+        <v>19544.16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44446.25113452546</v>
+        <v>44450.25116917824</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -917,21 +917,21 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>153.5684</v>
+        <v>148.3145</v>
       </c>
       <c r="G13" t="n">
-        <v>111.5371</v>
+        <v>107.5332</v>
       </c>
       <c r="H13" t="n">
-        <v>42.03125</v>
+        <v>40.78125</v>
       </c>
       <c r="I13" t="n">
-        <v>18829.13</v>
+        <v>19429.33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44445.25113086806</v>
+        <v>44449.25115864583</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -954,21 +954,21 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>25.95703</v>
+        <v>146.2891</v>
       </c>
       <c r="G14" t="n">
-        <v>16.48438</v>
+        <v>104.8906</v>
       </c>
       <c r="H14" t="n">
-        <v>9.472656000000001</v>
+        <v>41.39844</v>
       </c>
       <c r="I14" t="n">
-        <v>18675.56</v>
+        <v>19281.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44444.25112048611</v>
+        <v>44448.25115370371</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -991,21 +991,21 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>106.3125</v>
+        <v>145.9219</v>
       </c>
       <c r="G15" t="n">
-        <v>72.86328</v>
+        <v>107.5703</v>
       </c>
       <c r="H15" t="n">
-        <v>33.44922</v>
+        <v>38.35156</v>
       </c>
       <c r="I15" t="n">
-        <v>18649.6</v>
+        <v>19134.72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44443.25111519676</v>
+        <v>44447.25114259259</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1028,21 +1028,21 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>151.9531</v>
+        <v>159.6738</v>
       </c>
       <c r="G16" t="n">
-        <v>109.873</v>
+        <v>119.1348</v>
       </c>
       <c r="H16" t="n">
-        <v>42.08008</v>
+        <v>40.53906</v>
       </c>
       <c r="I16" t="n">
-        <v>18543.29</v>
+        <v>18988.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44442.2511065625</v>
+        <v>44446.25113452546</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1065,21 +1065,21 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>152.3496</v>
+        <v>153.5684</v>
       </c>
       <c r="G17" t="n">
-        <v>113.1777</v>
+        <v>111.5371</v>
       </c>
       <c r="H17" t="n">
-        <v>39.17188</v>
+        <v>42.03125</v>
       </c>
       <c r="I17" t="n">
-        <v>18391.34</v>
+        <v>18829.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44441.25109980324</v>
+        <v>44445.25113086806</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1102,52 +1102,200 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>164.1035</v>
+        <v>25.95703</v>
       </c>
       <c r="G18" t="n">
-        <v>119.6855</v>
+        <v>16.48438</v>
       </c>
       <c r="H18" t="n">
-        <v>44.41797</v>
+        <v>9.472656000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>18238.99</v>
+        <v>18675.56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
+        <v>44444.25112048611</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MDP1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Gudang E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>172.20.47.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>PM1000</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>106.3125</v>
+      </c>
+      <c r="G19" t="n">
+        <v>72.86328</v>
+      </c>
+      <c r="H19" t="n">
+        <v>33.44922</v>
+      </c>
+      <c r="I19" t="n">
+        <v>18649.6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44443.25111519676</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MDP1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Gudang E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>172.20.47.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>PM1000</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>151.9531</v>
+      </c>
+      <c r="G20" t="n">
+        <v>109.873</v>
+      </c>
+      <c r="H20" t="n">
+        <v>42.08008</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18543.29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44442.2511065625</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MDP1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Gudang E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>172.20.47.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>PM1000</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>152.3496</v>
+      </c>
+      <c r="G21" t="n">
+        <v>113.1777</v>
+      </c>
+      <c r="H21" t="n">
+        <v>39.17188</v>
+      </c>
+      <c r="I21" t="n">
+        <v>18391.34</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44441.25109980324</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MDP1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Gudang E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>172.20.47.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>PM1000</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>164.1035</v>
+      </c>
+      <c r="G22" t="n">
+        <v>119.6855</v>
+      </c>
+      <c r="H22" t="n">
+        <v>44.41797</v>
+      </c>
+      <c r="I22" t="n">
+        <v>18238.99</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>44440.25109193287</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MDP1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Gudang E</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>172.20.47.14</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>PM1000</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MDP1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Gudang E</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>172.20.47.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>PM1000</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
         <v>158.332</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G23" t="n">
         <v>115.4492</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H23" t="n">
         <v>42.88281</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I23" t="n">
         <v>18074.88</v>
       </c>
     </row>
